--- a/decks/N5_학습하기/N5_03_형용사부사기타품사/N5_03_01_형용사부사기타품사_total_108.xlsx
+++ b/decks/N5_학습하기/N5_03_형용사부사기타품사/N5_03_01_형용사부사기타품사_total_108.xlsx
@@ -1454,7 +1454,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1525,6 +1525,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2581,15 +2584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="120.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="120.352" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -4650,2924 +4653,20 @@
       <c r="A109" s="21">
         <v>108</v>
       </c>
-      <c r="B109" t="s" s="7">
+      <c r="B109" t="s" s="24">
         <v>388</v>
       </c>
-      <c r="C109" t="s" s="7">
+      <c r="C109" t="s" s="24">
         <v>38</v>
       </c>
-      <c r="D109" t="s" s="7">
+      <c r="D109" t="s" s="24">
         <v>389</v>
       </c>
-      <c r="E109" t="s" s="7">
+      <c r="E109" t="s" s="24">
         <v>390</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="23"/>
-    </row>
-    <row r="110" ht="28.45" customHeight="1">
-      <c r="A110" s="21">
-        <v>109</v>
-      </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="23"/>
-    </row>
-    <row r="111" ht="28.45" customHeight="1">
-      <c r="A111" s="21">
-        <v>110</v>
-      </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
-    </row>
-    <row r="112" ht="28.45" customHeight="1">
-      <c r="A112" s="21">
-        <v>111</v>
-      </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="23"/>
-    </row>
-    <row r="113" ht="28.45" customHeight="1">
-      <c r="A113" s="21">
-        <v>112</v>
-      </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="23"/>
-    </row>
-    <row r="114" ht="28.45" customHeight="1">
-      <c r="A114" s="21">
-        <v>113</v>
-      </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="23"/>
-    </row>
-    <row r="115" ht="28.45" customHeight="1">
-      <c r="A115" s="21">
-        <v>114</v>
-      </c>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="23"/>
-    </row>
-    <row r="116" ht="28.45" customHeight="1">
-      <c r="A116" s="21">
-        <v>115</v>
-      </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="23"/>
-    </row>
-    <row r="117" ht="28.45" customHeight="1">
-      <c r="A117" s="21">
-        <v>116</v>
-      </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="23"/>
-    </row>
-    <row r="118" ht="28.45" customHeight="1">
-      <c r="A118" s="21">
-        <v>117</v>
-      </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="23"/>
-    </row>
-    <row r="119" ht="28.45" customHeight="1">
-      <c r="A119" s="21">
-        <v>118</v>
-      </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="23"/>
-    </row>
-    <row r="120" ht="28.45" customHeight="1">
-      <c r="A120" s="21">
-        <v>119</v>
-      </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="23"/>
-    </row>
-    <row r="121" ht="28.45" customHeight="1">
-      <c r="A121" s="21">
-        <v>120</v>
-      </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="23"/>
-    </row>
-    <row r="122" ht="28.45" customHeight="1">
-      <c r="A122" s="21">
-        <v>121</v>
-      </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="23"/>
-    </row>
-    <row r="123" ht="28.45" customHeight="1">
-      <c r="A123" s="21">
-        <v>122</v>
-      </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="23"/>
-    </row>
-    <row r="124" ht="28.45" customHeight="1">
-      <c r="A124" s="21">
-        <v>123</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="23"/>
-    </row>
-    <row r="125" ht="28.45" customHeight="1">
-      <c r="A125" s="21">
-        <v>124</v>
-      </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="23"/>
-    </row>
-    <row r="126" ht="28.45" customHeight="1">
-      <c r="A126" s="21">
-        <v>125</v>
-      </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="23"/>
-    </row>
-    <row r="127" ht="28.45" customHeight="1">
-      <c r="A127" s="21">
-        <v>126</v>
-      </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="23"/>
-    </row>
-    <row r="128" ht="28.45" customHeight="1">
-      <c r="A128" s="21">
-        <v>127</v>
-      </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="23"/>
-    </row>
-    <row r="129" ht="28.45" customHeight="1">
-      <c r="A129" s="21">
-        <v>128</v>
-      </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="23"/>
-    </row>
-    <row r="130" ht="28.45" customHeight="1">
-      <c r="A130" s="21">
-        <v>129</v>
-      </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="23"/>
-    </row>
-    <row r="131" ht="28.45" customHeight="1">
-      <c r="A131" s="21">
-        <v>130</v>
-      </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="23"/>
-    </row>
-    <row r="132" ht="28.45" customHeight="1">
-      <c r="A132" s="21">
-        <v>131</v>
-      </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="23"/>
-    </row>
-    <row r="133" ht="28.45" customHeight="1">
-      <c r="A133" s="21">
-        <v>132</v>
-      </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="23"/>
-    </row>
-    <row r="134" ht="28.45" customHeight="1">
-      <c r="A134" s="21">
-        <v>133</v>
-      </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="23"/>
-    </row>
-    <row r="135" ht="28.45" customHeight="1">
-      <c r="A135" s="21">
-        <v>134</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="23"/>
-    </row>
-    <row r="136" ht="28.45" customHeight="1">
-      <c r="A136" s="21">
-        <v>135</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="23"/>
-    </row>
-    <row r="137" ht="28.45" customHeight="1">
-      <c r="A137" s="21">
-        <v>136</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="23"/>
-    </row>
-    <row r="138" ht="28.45" customHeight="1">
-      <c r="A138" s="21">
-        <v>137</v>
-      </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="23"/>
-    </row>
-    <row r="139" ht="28.45" customHeight="1">
-      <c r="A139" s="21">
-        <v>138</v>
-      </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="23"/>
-    </row>
-    <row r="140" ht="28.45" customHeight="1">
-      <c r="A140" s="21">
-        <v>139</v>
-      </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="23"/>
-    </row>
-    <row r="141" ht="28.45" customHeight="1">
-      <c r="A141" s="21">
-        <v>140</v>
-      </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="23"/>
-    </row>
-    <row r="142" ht="28.45" customHeight="1">
-      <c r="A142" s="21">
-        <v>141</v>
-      </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="23"/>
-    </row>
-    <row r="143" ht="28.45" customHeight="1">
-      <c r="A143" s="21">
-        <v>142</v>
-      </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="23"/>
-    </row>
-    <row r="144" ht="28.45" customHeight="1">
-      <c r="A144" s="21">
-        <v>143</v>
-      </c>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="23"/>
-    </row>
-    <row r="145" ht="28.45" customHeight="1">
-      <c r="A145" s="21">
-        <v>144</v>
-      </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="23"/>
-    </row>
-    <row r="146" ht="28.45" customHeight="1">
-      <c r="A146" s="21">
-        <v>145</v>
-      </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="23"/>
-    </row>
-    <row r="147" ht="28.45" customHeight="1">
-      <c r="A147" s="21">
-        <v>146</v>
-      </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="23"/>
-    </row>
-    <row r="148" ht="28.45" customHeight="1">
-      <c r="A148" s="21">
-        <v>147</v>
-      </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="23"/>
-    </row>
-    <row r="149" ht="28.45" customHeight="1">
-      <c r="A149" s="21">
-        <v>148</v>
-      </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="23"/>
-    </row>
-    <row r="150" ht="28.45" customHeight="1">
-      <c r="A150" s="21">
-        <v>149</v>
-      </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="23"/>
-    </row>
-    <row r="151" ht="28.45" customHeight="1">
-      <c r="A151" s="21">
-        <v>150</v>
-      </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="23"/>
-    </row>
-    <row r="152" ht="28.45" customHeight="1">
-      <c r="A152" s="21">
-        <v>151</v>
-      </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="23"/>
-    </row>
-    <row r="153" ht="28.45" customHeight="1">
-      <c r="A153" s="21">
-        <v>152</v>
-      </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="23"/>
-    </row>
-    <row r="154" ht="28.45" customHeight="1">
-      <c r="A154" s="21">
-        <v>153</v>
-      </c>
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="23"/>
-    </row>
-    <row r="155" ht="28.45" customHeight="1">
-      <c r="A155" s="21">
-        <v>154</v>
-      </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="23"/>
-    </row>
-    <row r="156" ht="28.45" customHeight="1">
-      <c r="A156" s="21">
-        <v>155</v>
-      </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="23"/>
-    </row>
-    <row r="157" ht="28.45" customHeight="1">
-      <c r="A157" s="21">
-        <v>156</v>
-      </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="23"/>
-    </row>
-    <row r="158" ht="28.45" customHeight="1">
-      <c r="A158" s="21">
-        <v>157</v>
-      </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="23"/>
-    </row>
-    <row r="159" ht="28.45" customHeight="1">
-      <c r="A159" s="21">
-        <v>158</v>
-      </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="23"/>
-    </row>
-    <row r="160" ht="28.45" customHeight="1">
-      <c r="A160" s="21">
-        <v>159</v>
-      </c>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="23"/>
-    </row>
-    <row r="161" ht="28.45" customHeight="1">
-      <c r="A161" s="21">
-        <v>160</v>
-      </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="23"/>
-    </row>
-    <row r="162" ht="28.45" customHeight="1">
-      <c r="A162" s="21">
-        <v>161</v>
-      </c>
-      <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="23"/>
-    </row>
-    <row r="163" ht="28.45" customHeight="1">
-      <c r="A163" s="21">
-        <v>162</v>
-      </c>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="23"/>
-    </row>
-    <row r="164" ht="28.45" customHeight="1">
-      <c r="A164" s="21">
-        <v>163</v>
-      </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="23"/>
-    </row>
-    <row r="165" ht="28.45" customHeight="1">
-      <c r="A165" s="21">
-        <v>164</v>
-      </c>
-      <c r="B165" s="16"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="23"/>
-    </row>
-    <row r="166" ht="28.45" customHeight="1">
-      <c r="A166" s="21">
-        <v>165</v>
-      </c>
-      <c r="B166" s="16"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="23"/>
-    </row>
-    <row r="167" ht="28.45" customHeight="1">
-      <c r="A167" s="21">
-        <v>166</v>
-      </c>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="23"/>
-    </row>
-    <row r="168" ht="28.45" customHeight="1">
-      <c r="A168" s="21">
-        <v>167</v>
-      </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="23"/>
-    </row>
-    <row r="169" ht="28.45" customHeight="1">
-      <c r="A169" s="21">
-        <v>168</v>
-      </c>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="23"/>
-    </row>
-    <row r="170" ht="28.45" customHeight="1">
-      <c r="A170" s="21">
-        <v>169</v>
-      </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="23"/>
-    </row>
-    <row r="171" ht="28.45" customHeight="1">
-      <c r="A171" s="21">
-        <v>170</v>
-      </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="23"/>
-    </row>
-    <row r="172" ht="28.45" customHeight="1">
-      <c r="A172" s="21">
-        <v>171</v>
-      </c>
-      <c r="B172" s="16"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="23"/>
-    </row>
-    <row r="173" ht="28.45" customHeight="1">
-      <c r="A173" s="21">
-        <v>172</v>
-      </c>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="23"/>
-    </row>
-    <row r="174" ht="28.45" customHeight="1">
-      <c r="A174" s="21">
-        <v>173</v>
-      </c>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="23"/>
-    </row>
-    <row r="175" ht="28.45" customHeight="1">
-      <c r="A175" s="21">
-        <v>174</v>
-      </c>
-      <c r="B175" s="16"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="23"/>
-    </row>
-    <row r="176" ht="28.45" customHeight="1">
-      <c r="A176" s="21">
-        <v>175</v>
-      </c>
-      <c r="B176" s="16"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="23"/>
-    </row>
-    <row r="177" ht="28.45" customHeight="1">
-      <c r="A177" s="21">
-        <v>176</v>
-      </c>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="23"/>
-    </row>
-    <row r="178" ht="28.45" customHeight="1">
-      <c r="A178" s="21">
-        <v>177</v>
-      </c>
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="23"/>
-    </row>
-    <row r="179" ht="28.45" customHeight="1">
-      <c r="A179" s="21">
-        <v>178</v>
-      </c>
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="23"/>
-    </row>
-    <row r="180" ht="28.45" customHeight="1">
-      <c r="A180" s="21">
-        <v>179</v>
-      </c>
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="22"/>
-      <c r="G180" s="23"/>
-    </row>
-    <row r="181" ht="28.45" customHeight="1">
-      <c r="A181" s="21">
-        <v>180</v>
-      </c>
-      <c r="B181" s="16"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="23"/>
-    </row>
-    <row r="182" ht="28.45" customHeight="1">
-      <c r="A182" s="21">
-        <v>181</v>
-      </c>
-      <c r="B182" s="16"/>
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="23"/>
-    </row>
-    <row r="183" ht="28.45" customHeight="1">
-      <c r="A183" s="21">
-        <v>182</v>
-      </c>
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="23"/>
-    </row>
-    <row r="184" ht="28.45" customHeight="1">
-      <c r="A184" s="21">
-        <v>183</v>
-      </c>
-      <c r="B184" s="16"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="23"/>
-    </row>
-    <row r="185" ht="28.45" customHeight="1">
-      <c r="A185" s="21">
-        <v>184</v>
-      </c>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="23"/>
-    </row>
-    <row r="186" ht="28.45" customHeight="1">
-      <c r="A186" s="21">
-        <v>185</v>
-      </c>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="23"/>
-    </row>
-    <row r="187" ht="28.45" customHeight="1">
-      <c r="A187" s="21">
-        <v>186</v>
-      </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="23"/>
-    </row>
-    <row r="188" ht="28.45" customHeight="1">
-      <c r="A188" s="21">
-        <v>187</v>
-      </c>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="22"/>
-      <c r="G188" s="23"/>
-    </row>
-    <row r="189" ht="28.45" customHeight="1">
-      <c r="A189" s="21">
-        <v>188</v>
-      </c>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="22"/>
-      <c r="G189" s="23"/>
-    </row>
-    <row r="190" ht="28.45" customHeight="1">
-      <c r="A190" s="21">
-        <v>189</v>
-      </c>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="23"/>
-    </row>
-    <row r="191" ht="28.45" customHeight="1">
-      <c r="A191" s="21">
-        <v>190</v>
-      </c>
-      <c r="B191" s="16"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="23"/>
-    </row>
-    <row r="192" ht="28.45" customHeight="1">
-      <c r="A192" s="21">
-        <v>191</v>
-      </c>
-      <c r="B192" s="16"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="22"/>
-      <c r="G192" s="23"/>
-    </row>
-    <row r="193" ht="28.45" customHeight="1">
-      <c r="A193" s="21">
-        <v>192</v>
-      </c>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="23"/>
-    </row>
-    <row r="194" ht="28.45" customHeight="1">
-      <c r="A194" s="21">
-        <v>193</v>
-      </c>
-      <c r="B194" s="16"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="23"/>
-    </row>
-    <row r="195" ht="28.45" customHeight="1">
-      <c r="A195" s="21">
-        <v>194</v>
-      </c>
-      <c r="B195" s="16"/>
-      <c r="C195" s="16"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="22"/>
-      <c r="G195" s="23"/>
-    </row>
-    <row r="196" ht="28.45" customHeight="1">
-      <c r="A196" s="21">
-        <v>195</v>
-      </c>
-      <c r="B196" s="16"/>
-      <c r="C196" s="16"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="23"/>
-    </row>
-    <row r="197" ht="28.45" customHeight="1">
-      <c r="A197" s="21">
-        <v>196</v>
-      </c>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="23"/>
-    </row>
-    <row r="198" ht="28.45" customHeight="1">
-      <c r="A198" s="21">
-        <v>197</v>
-      </c>
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="22"/>
-      <c r="G198" s="23"/>
-    </row>
-    <row r="199" ht="28.45" customHeight="1">
-      <c r="A199" s="21">
-        <v>198</v>
-      </c>
-      <c r="B199" s="16"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="23"/>
-    </row>
-    <row r="200" ht="28.45" customHeight="1">
-      <c r="A200" s="21">
-        <v>199</v>
-      </c>
-      <c r="B200" s="16"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="23"/>
-    </row>
-    <row r="201" ht="28.45" customHeight="1">
-      <c r="A201" s="21">
-        <v>200</v>
-      </c>
-      <c r="B201" s="16"/>
-      <c r="C201" s="16"/>
-      <c r="D201" s="16"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="23"/>
-    </row>
-    <row r="202" ht="28.45" customHeight="1">
-      <c r="A202" s="21">
-        <v>201</v>
-      </c>
-      <c r="B202" s="16"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="16"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="23"/>
-    </row>
-    <row r="203" ht="28.45" customHeight="1">
-      <c r="A203" s="21">
-        <v>202</v>
-      </c>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="23"/>
-    </row>
-    <row r="204" ht="28.45" customHeight="1">
-      <c r="A204" s="21">
-        <v>203</v>
-      </c>
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="23"/>
-    </row>
-    <row r="205" ht="28.45" customHeight="1">
-      <c r="A205" s="21">
-        <v>204</v>
-      </c>
-      <c r="B205" s="16"/>
-      <c r="C205" s="16"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="23"/>
-    </row>
-    <row r="206" ht="28.45" customHeight="1">
-      <c r="A206" s="21">
-        <v>205</v>
-      </c>
-      <c r="B206" s="16"/>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="23"/>
-    </row>
-    <row r="207" ht="28.45" customHeight="1">
-      <c r="A207" s="21">
-        <v>206</v>
-      </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="23"/>
-    </row>
-    <row r="208" ht="28.45" customHeight="1">
-      <c r="A208" s="21">
-        <v>207</v>
-      </c>
-      <c r="B208" s="16"/>
-      <c r="C208" s="16"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="23"/>
-    </row>
-    <row r="209" ht="28.45" customHeight="1">
-      <c r="A209" s="21">
-        <v>208</v>
-      </c>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="22"/>
-      <c r="G209" s="23"/>
-    </row>
-    <row r="210" ht="28.45" customHeight="1">
-      <c r="A210" s="21">
-        <v>209</v>
-      </c>
-      <c r="B210" s="16"/>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="23"/>
-    </row>
-    <row r="211" ht="28.45" customHeight="1">
-      <c r="A211" s="21">
-        <v>210</v>
-      </c>
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="23"/>
-    </row>
-    <row r="212" ht="28.45" customHeight="1">
-      <c r="A212" s="21">
-        <v>211</v>
-      </c>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="23"/>
-    </row>
-    <row r="213" ht="28.45" customHeight="1">
-      <c r="A213" s="21">
-        <v>212</v>
-      </c>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="23"/>
-    </row>
-    <row r="214" ht="28.45" customHeight="1">
-      <c r="A214" s="21">
-        <v>213</v>
-      </c>
-      <c r="B214" s="16"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="16"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="23"/>
-    </row>
-    <row r="215" ht="28.45" customHeight="1">
-      <c r="A215" s="21">
-        <v>214</v>
-      </c>
-      <c r="B215" s="16"/>
-      <c r="C215" s="16"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="23"/>
-    </row>
-    <row r="216" ht="28.45" customHeight="1">
-      <c r="A216" s="21">
-        <v>215</v>
-      </c>
-      <c r="B216" s="16"/>
-      <c r="C216" s="16"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="23"/>
-    </row>
-    <row r="217" ht="28.45" customHeight="1">
-      <c r="A217" s="21">
-        <v>216</v>
-      </c>
-      <c r="B217" s="16"/>
-      <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="23"/>
-    </row>
-    <row r="218" ht="28.45" customHeight="1">
-      <c r="A218" s="21">
-        <v>217</v>
-      </c>
-      <c r="B218" s="16"/>
-      <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="16"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="23"/>
-    </row>
-    <row r="219" ht="28.45" customHeight="1">
-      <c r="A219" s="21">
-        <v>218</v>
-      </c>
-      <c r="B219" s="16"/>
-      <c r="C219" s="16"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="23"/>
-    </row>
-    <row r="220" ht="28.45" customHeight="1">
-      <c r="A220" s="21">
-        <v>219</v>
-      </c>
-      <c r="B220" s="16"/>
-      <c r="C220" s="16"/>
-      <c r="D220" s="16"/>
-      <c r="E220" s="16"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="23"/>
-    </row>
-    <row r="221" ht="28.45" customHeight="1">
-      <c r="A221" s="21">
-        <v>220</v>
-      </c>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="23"/>
-    </row>
-    <row r="222" ht="28.45" customHeight="1">
-      <c r="A222" s="21">
-        <v>221</v>
-      </c>
-      <c r="B222" s="16"/>
-      <c r="C222" s="16"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="22"/>
-      <c r="G222" s="23"/>
-    </row>
-    <row r="223" ht="28.45" customHeight="1">
-      <c r="A223" s="21">
-        <v>222</v>
-      </c>
-      <c r="B223" s="16"/>
-      <c r="C223" s="16"/>
-      <c r="D223" s="16"/>
-      <c r="E223" s="16"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="23"/>
-    </row>
-    <row r="224" ht="28.45" customHeight="1">
-      <c r="A224" s="21">
-        <v>223</v>
-      </c>
-      <c r="B224" s="16"/>
-      <c r="C224" s="16"/>
-      <c r="D224" s="16"/>
-      <c r="E224" s="16"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="23"/>
-    </row>
-    <row r="225" ht="28.45" customHeight="1">
-      <c r="A225" s="21">
-        <v>224</v>
-      </c>
-      <c r="B225" s="16"/>
-      <c r="C225" s="16"/>
-      <c r="D225" s="16"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="22"/>
-      <c r="G225" s="23"/>
-    </row>
-    <row r="226" ht="28.45" customHeight="1">
-      <c r="A226" s="21">
-        <v>225</v>
-      </c>
-      <c r="B226" s="16"/>
-      <c r="C226" s="16"/>
-      <c r="D226" s="16"/>
-      <c r="E226" s="16"/>
-      <c r="F226" s="22"/>
-      <c r="G226" s="23"/>
-    </row>
-    <row r="227" ht="28.45" customHeight="1">
-      <c r="A227" s="21">
-        <v>226</v>
-      </c>
-      <c r="B227" s="16"/>
-      <c r="C227" s="16"/>
-      <c r="D227" s="16"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="22"/>
-      <c r="G227" s="23"/>
-    </row>
-    <row r="228" ht="28.45" customHeight="1">
-      <c r="A228" s="21">
-        <v>227</v>
-      </c>
-      <c r="B228" s="16"/>
-      <c r="C228" s="16"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="22"/>
-      <c r="G228" s="23"/>
-    </row>
-    <row r="229" ht="28.45" customHeight="1">
-      <c r="A229" s="21">
-        <v>228</v>
-      </c>
-      <c r="B229" s="16"/>
-      <c r="C229" s="16"/>
-      <c r="D229" s="16"/>
-      <c r="E229" s="16"/>
-      <c r="F229" s="22"/>
-      <c r="G229" s="23"/>
-    </row>
-    <row r="230" ht="28.45" customHeight="1">
-      <c r="A230" s="21">
-        <v>229</v>
-      </c>
-      <c r="B230" s="16"/>
-      <c r="C230" s="16"/>
-      <c r="D230" s="16"/>
-      <c r="E230" s="16"/>
-      <c r="F230" s="22"/>
-      <c r="G230" s="23"/>
-    </row>
-    <row r="231" ht="28.45" customHeight="1">
-      <c r="A231" s="21">
-        <v>230</v>
-      </c>
-      <c r="B231" s="16"/>
-      <c r="C231" s="16"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="22"/>
-      <c r="G231" s="23"/>
-    </row>
-    <row r="232" ht="28.45" customHeight="1">
-      <c r="A232" s="21">
-        <v>231</v>
-      </c>
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="23"/>
-    </row>
-    <row r="233" ht="28.45" customHeight="1">
-      <c r="A233" s="21">
-        <v>232</v>
-      </c>
-      <c r="B233" s="16"/>
-      <c r="C233" s="16"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="22"/>
-      <c r="G233" s="23"/>
-    </row>
-    <row r="234" ht="28.45" customHeight="1">
-      <c r="A234" s="21">
-        <v>233</v>
-      </c>
-      <c r="B234" s="16"/>
-      <c r="C234" s="16"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="23"/>
-    </row>
-    <row r="235" ht="28.45" customHeight="1">
-      <c r="A235" s="21">
-        <v>234</v>
-      </c>
-      <c r="B235" s="16"/>
-      <c r="C235" s="16"/>
-      <c r="D235" s="16"/>
-      <c r="E235" s="16"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="23"/>
-    </row>
-    <row r="236" ht="28.45" customHeight="1">
-      <c r="A236" s="21">
-        <v>235</v>
-      </c>
-      <c r="B236" s="16"/>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="23"/>
-    </row>
-    <row r="237" ht="28.45" customHeight="1">
-      <c r="A237" s="21">
-        <v>236</v>
-      </c>
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="23"/>
-    </row>
-    <row r="238" ht="28.45" customHeight="1">
-      <c r="A238" s="21">
-        <v>237</v>
-      </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="22"/>
-      <c r="G238" s="23"/>
-    </row>
-    <row r="239" ht="28.45" customHeight="1">
-      <c r="A239" s="21">
-        <v>238</v>
-      </c>
-      <c r="B239" s="16"/>
-      <c r="C239" s="16"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="22"/>
-      <c r="G239" s="23"/>
-    </row>
-    <row r="240" ht="28.45" customHeight="1">
-      <c r="A240" s="21">
-        <v>239</v>
-      </c>
-      <c r="B240" s="16"/>
-      <c r="C240" s="16"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="22"/>
-      <c r="G240" s="23"/>
-    </row>
-    <row r="241" ht="28.45" customHeight="1">
-      <c r="A241" s="21">
-        <v>240</v>
-      </c>
-      <c r="B241" s="16"/>
-      <c r="C241" s="16"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="22"/>
-      <c r="G241" s="23"/>
-    </row>
-    <row r="242" ht="28.45" customHeight="1">
-      <c r="A242" s="21">
-        <v>241</v>
-      </c>
-      <c r="B242" s="16"/>
-      <c r="C242" s="16"/>
-      <c r="D242" s="16"/>
-      <c r="E242" s="16"/>
-      <c r="F242" s="22"/>
-      <c r="G242" s="23"/>
-    </row>
-    <row r="243" ht="28.45" customHeight="1">
-      <c r="A243" s="21">
-        <v>242</v>
-      </c>
-      <c r="B243" s="16"/>
-      <c r="C243" s="16"/>
-      <c r="D243" s="16"/>
-      <c r="E243" s="16"/>
-      <c r="F243" s="22"/>
-      <c r="G243" s="23"/>
-    </row>
-    <row r="244" ht="28.45" customHeight="1">
-      <c r="A244" s="21">
-        <v>243</v>
-      </c>
-      <c r="B244" s="16"/>
-      <c r="C244" s="16"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="16"/>
-      <c r="F244" s="22"/>
-      <c r="G244" s="23"/>
-    </row>
-    <row r="245" ht="28.45" customHeight="1">
-      <c r="A245" s="21">
-        <v>244</v>
-      </c>
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="22"/>
-      <c r="G245" s="23"/>
-    </row>
-    <row r="246" ht="28.45" customHeight="1">
-      <c r="A246" s="21">
-        <v>245</v>
-      </c>
-      <c r="B246" s="16"/>
-      <c r="C246" s="16"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="22"/>
-      <c r="G246" s="23"/>
-    </row>
-    <row r="247" ht="28.45" customHeight="1">
-      <c r="A247" s="21">
-        <v>246</v>
-      </c>
-      <c r="B247" s="16"/>
-      <c r="C247" s="16"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="22"/>
-      <c r="G247" s="23"/>
-    </row>
-    <row r="248" ht="28.45" customHeight="1">
-      <c r="A248" s="21">
-        <v>247</v>
-      </c>
-      <c r="B248" s="16"/>
-      <c r="C248" s="16"/>
-      <c r="D248" s="16"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="22"/>
-      <c r="G248" s="23"/>
-    </row>
-    <row r="249" ht="28.45" customHeight="1">
-      <c r="A249" s="21">
-        <v>248</v>
-      </c>
-      <c r="B249" s="16"/>
-      <c r="C249" s="16"/>
-      <c r="D249" s="16"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="22"/>
-      <c r="G249" s="23"/>
-    </row>
-    <row r="250" ht="28.45" customHeight="1">
-      <c r="A250" s="21">
-        <v>249</v>
-      </c>
-      <c r="B250" s="16"/>
-      <c r="C250" s="16"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="22"/>
-      <c r="G250" s="23"/>
-    </row>
-    <row r="251" ht="28.45" customHeight="1">
-      <c r="A251" s="21">
-        <v>250</v>
-      </c>
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="22"/>
-      <c r="G251" s="23"/>
-    </row>
-    <row r="252" ht="28.45" customHeight="1">
-      <c r="A252" s="21">
-        <v>251</v>
-      </c>
-      <c r="B252" s="16"/>
-      <c r="C252" s="16"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="22"/>
-      <c r="G252" s="23"/>
-    </row>
-    <row r="253" ht="28.45" customHeight="1">
-      <c r="A253" s="21">
-        <v>252</v>
-      </c>
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="22"/>
-      <c r="G253" s="23"/>
-    </row>
-    <row r="254" ht="28.45" customHeight="1">
-      <c r="A254" s="21">
-        <v>253</v>
-      </c>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="22"/>
-      <c r="G254" s="23"/>
-    </row>
-    <row r="255" ht="28.45" customHeight="1">
-      <c r="A255" s="21">
-        <v>254</v>
-      </c>
-      <c r="B255" s="16"/>
-      <c r="C255" s="16"/>
-      <c r="D255" s="16"/>
-      <c r="E255" s="16"/>
-      <c r="F255" s="22"/>
-      <c r="G255" s="23"/>
-    </row>
-    <row r="256" ht="28.45" customHeight="1">
-      <c r="A256" s="21">
-        <v>255</v>
-      </c>
-      <c r="B256" s="16"/>
-      <c r="C256" s="16"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="16"/>
-      <c r="F256" s="22"/>
-      <c r="G256" s="23"/>
-    </row>
-    <row r="257" ht="28.45" customHeight="1">
-      <c r="A257" s="21">
-        <v>256</v>
-      </c>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="22"/>
-      <c r="G257" s="23"/>
-    </row>
-    <row r="258" ht="28.45" customHeight="1">
-      <c r="A258" s="21">
-        <v>257</v>
-      </c>
-      <c r="B258" s="16"/>
-      <c r="C258" s="16"/>
-      <c r="D258" s="16"/>
-      <c r="E258" s="16"/>
-      <c r="F258" s="22"/>
-      <c r="G258" s="23"/>
-    </row>
-    <row r="259" ht="28.45" customHeight="1">
-      <c r="A259" s="21">
-        <v>258</v>
-      </c>
-      <c r="B259" s="16"/>
-      <c r="C259" s="16"/>
-      <c r="D259" s="16"/>
-      <c r="E259" s="16"/>
-      <c r="F259" s="22"/>
-      <c r="G259" s="23"/>
-    </row>
-    <row r="260" ht="28.45" customHeight="1">
-      <c r="A260" s="21">
-        <v>259</v>
-      </c>
-      <c r="B260" s="16"/>
-      <c r="C260" s="16"/>
-      <c r="D260" s="16"/>
-      <c r="E260" s="16"/>
-      <c r="F260" s="22"/>
-      <c r="G260" s="23"/>
-    </row>
-    <row r="261" ht="28.45" customHeight="1">
-      <c r="A261" s="21">
-        <v>260</v>
-      </c>
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="22"/>
-      <c r="G261" s="23"/>
-    </row>
-    <row r="262" ht="28.45" customHeight="1">
-      <c r="A262" s="21">
-        <v>261</v>
-      </c>
-      <c r="B262" s="16"/>
-      <c r="C262" s="16"/>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="22"/>
-      <c r="G262" s="23"/>
-    </row>
-    <row r="263" ht="28.45" customHeight="1">
-      <c r="A263" s="21">
-        <v>262</v>
-      </c>
-      <c r="B263" s="16"/>
-      <c r="C263" s="16"/>
-      <c r="D263" s="16"/>
-      <c r="E263" s="16"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="23"/>
-    </row>
-    <row r="264" ht="28.45" customHeight="1">
-      <c r="A264" s="21">
-        <v>263</v>
-      </c>
-      <c r="B264" s="16"/>
-      <c r="C264" s="16"/>
-      <c r="D264" s="16"/>
-      <c r="E264" s="16"/>
-      <c r="F264" s="22"/>
-      <c r="G264" s="23"/>
-    </row>
-    <row r="265" ht="28.45" customHeight="1">
-      <c r="A265" s="21">
-        <v>264</v>
-      </c>
-      <c r="B265" s="16"/>
-      <c r="C265" s="16"/>
-      <c r="D265" s="16"/>
-      <c r="E265" s="16"/>
-      <c r="F265" s="22"/>
-      <c r="G265" s="23"/>
-    </row>
-    <row r="266" ht="28.45" customHeight="1">
-      <c r="A266" s="21">
-        <v>265</v>
-      </c>
-      <c r="B266" s="16"/>
-      <c r="C266" s="16"/>
-      <c r="D266" s="16"/>
-      <c r="E266" s="16"/>
-      <c r="F266" s="22"/>
-      <c r="G266" s="23"/>
-    </row>
-    <row r="267" ht="28.45" customHeight="1">
-      <c r="A267" s="21">
-        <v>266</v>
-      </c>
-      <c r="B267" s="16"/>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="23"/>
-    </row>
-    <row r="268" ht="28.45" customHeight="1">
-      <c r="A268" s="21">
-        <v>267</v>
-      </c>
-      <c r="B268" s="16"/>
-      <c r="C268" s="16"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="22"/>
-      <c r="G268" s="23"/>
-    </row>
-    <row r="269" ht="28.45" customHeight="1">
-      <c r="A269" s="21">
-        <v>268</v>
-      </c>
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="23"/>
-    </row>
-    <row r="270" ht="28.45" customHeight="1">
-      <c r="A270" s="21">
-        <v>269</v>
-      </c>
-      <c r="B270" s="16"/>
-      <c r="C270" s="16"/>
-      <c r="D270" s="16"/>
-      <c r="E270" s="16"/>
-      <c r="F270" s="22"/>
-      <c r="G270" s="23"/>
-    </row>
-    <row r="271" ht="28.45" customHeight="1">
-      <c r="A271" s="21">
-        <v>270</v>
-      </c>
-      <c r="B271" s="16"/>
-      <c r="C271" s="16"/>
-      <c r="D271" s="16"/>
-      <c r="E271" s="16"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="23"/>
-    </row>
-    <row r="272" ht="28.45" customHeight="1">
-      <c r="A272" s="21">
-        <v>271</v>
-      </c>
-      <c r="B272" s="16"/>
-      <c r="C272" s="16"/>
-      <c r="D272" s="16"/>
-      <c r="E272" s="16"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="23"/>
-    </row>
-    <row r="273" ht="28.45" customHeight="1">
-      <c r="A273" s="21">
-        <v>272</v>
-      </c>
-      <c r="B273" s="16"/>
-      <c r="C273" s="16"/>
-      <c r="D273" s="16"/>
-      <c r="E273" s="16"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="23"/>
-    </row>
-    <row r="274" ht="28.45" customHeight="1">
-      <c r="A274" s="21">
-        <v>273</v>
-      </c>
-      <c r="B274" s="16"/>
-      <c r="C274" s="16"/>
-      <c r="D274" s="16"/>
-      <c r="E274" s="16"/>
-      <c r="F274" s="22"/>
-      <c r="G274" s="23"/>
-    </row>
-    <row r="275" ht="28.45" customHeight="1">
-      <c r="A275" s="21">
-        <v>274</v>
-      </c>
-      <c r="B275" s="16"/>
-      <c r="C275" s="16"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="23"/>
-    </row>
-    <row r="276" ht="28.45" customHeight="1">
-      <c r="A276" s="21">
-        <v>275</v>
-      </c>
-      <c r="B276" s="16"/>
-      <c r="C276" s="16"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="16"/>
-      <c r="F276" s="22"/>
-      <c r="G276" s="23"/>
-    </row>
-    <row r="277" ht="28.45" customHeight="1">
-      <c r="A277" s="21">
-        <v>276</v>
-      </c>
-      <c r="B277" s="16"/>
-      <c r="C277" s="16"/>
-      <c r="D277" s="16"/>
-      <c r="E277" s="16"/>
-      <c r="F277" s="22"/>
-      <c r="G277" s="23"/>
-    </row>
-    <row r="278" ht="28.45" customHeight="1">
-      <c r="A278" s="21">
-        <v>277</v>
-      </c>
-      <c r="B278" s="16"/>
-      <c r="C278" s="16"/>
-      <c r="D278" s="16"/>
-      <c r="E278" s="16"/>
-      <c r="F278" s="22"/>
-      <c r="G278" s="23"/>
-    </row>
-    <row r="279" ht="28.45" customHeight="1">
-      <c r="A279" s="21">
-        <v>278</v>
-      </c>
-      <c r="B279" s="16"/>
-      <c r="C279" s="16"/>
-      <c r="D279" s="16"/>
-      <c r="E279" s="16"/>
-      <c r="F279" s="22"/>
-      <c r="G279" s="23"/>
-    </row>
-    <row r="280" ht="28.45" customHeight="1">
-      <c r="A280" s="21">
-        <v>279</v>
-      </c>
-      <c r="B280" s="16"/>
-      <c r="C280" s="16"/>
-      <c r="D280" s="16"/>
-      <c r="E280" s="16"/>
-      <c r="F280" s="22"/>
-      <c r="G280" s="23"/>
-    </row>
-    <row r="281" ht="28.45" customHeight="1">
-      <c r="A281" s="21">
-        <v>280</v>
-      </c>
-      <c r="B281" s="16"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="16"/>
-      <c r="E281" s="16"/>
-      <c r="F281" s="22"/>
-      <c r="G281" s="23"/>
-    </row>
-    <row r="282" ht="28.45" customHeight="1">
-      <c r="A282" s="21">
-        <v>281</v>
-      </c>
-      <c r="B282" s="16"/>
-      <c r="C282" s="16"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="22"/>
-      <c r="G282" s="23"/>
-    </row>
-    <row r="283" ht="28.45" customHeight="1">
-      <c r="A283" s="21">
-        <v>282</v>
-      </c>
-      <c r="B283" s="16"/>
-      <c r="C283" s="16"/>
-      <c r="D283" s="16"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="22"/>
-      <c r="G283" s="23"/>
-    </row>
-    <row r="284" ht="28.45" customHeight="1">
-      <c r="A284" s="21">
-        <v>283</v>
-      </c>
-      <c r="B284" s="16"/>
-      <c r="C284" s="16"/>
-      <c r="D284" s="16"/>
-      <c r="E284" s="16"/>
-      <c r="F284" s="22"/>
-      <c r="G284" s="23"/>
-    </row>
-    <row r="285" ht="28.45" customHeight="1">
-      <c r="A285" s="21">
-        <v>284</v>
-      </c>
-      <c r="B285" s="16"/>
-      <c r="C285" s="16"/>
-      <c r="D285" s="16"/>
-      <c r="E285" s="16"/>
-      <c r="F285" s="22"/>
-      <c r="G285" s="23"/>
-    </row>
-    <row r="286" ht="28.45" customHeight="1">
-      <c r="A286" s="21">
-        <v>285</v>
-      </c>
-      <c r="B286" s="16"/>
-      <c r="C286" s="16"/>
-      <c r="D286" s="16"/>
-      <c r="E286" s="16"/>
-      <c r="F286" s="22"/>
-      <c r="G286" s="23"/>
-    </row>
-    <row r="287" ht="28.45" customHeight="1">
-      <c r="A287" s="21">
-        <v>286</v>
-      </c>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="22"/>
-      <c r="G287" s="23"/>
-    </row>
-    <row r="288" ht="28.45" customHeight="1">
-      <c r="A288" s="21">
-        <v>287</v>
-      </c>
-      <c r="B288" s="16"/>
-      <c r="C288" s="16"/>
-      <c r="D288" s="16"/>
-      <c r="E288" s="16"/>
-      <c r="F288" s="22"/>
-      <c r="G288" s="23"/>
-    </row>
-    <row r="289" ht="28.45" customHeight="1">
-      <c r="A289" s="21">
-        <v>288</v>
-      </c>
-      <c r="B289" s="16"/>
-      <c r="C289" s="16"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="16"/>
-      <c r="F289" s="22"/>
-      <c r="G289" s="23"/>
-    </row>
-    <row r="290" ht="28.45" customHeight="1">
-      <c r="A290" s="21">
-        <v>289</v>
-      </c>
-      <c r="B290" s="16"/>
-      <c r="C290" s="16"/>
-      <c r="D290" s="16"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="23"/>
-    </row>
-    <row r="291" ht="28.45" customHeight="1">
-      <c r="A291" s="21">
-        <v>290</v>
-      </c>
-      <c r="B291" s="16"/>
-      <c r="C291" s="16"/>
-      <c r="D291" s="16"/>
-      <c r="E291" s="16"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="23"/>
-    </row>
-    <row r="292" ht="28.45" customHeight="1">
-      <c r="A292" s="21">
-        <v>291</v>
-      </c>
-      <c r="B292" s="16"/>
-      <c r="C292" s="16"/>
-      <c r="D292" s="16"/>
-      <c r="E292" s="16"/>
-      <c r="F292" s="22"/>
-      <c r="G292" s="23"/>
-    </row>
-    <row r="293" ht="28.45" customHeight="1">
-      <c r="A293" s="21">
-        <v>292</v>
-      </c>
-      <c r="B293" s="16"/>
-      <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
-      <c r="F293" s="22"/>
-      <c r="G293" s="23"/>
-    </row>
-    <row r="294" ht="28.45" customHeight="1">
-      <c r="A294" s="21">
-        <v>293</v>
-      </c>
-      <c r="B294" s="16"/>
-      <c r="C294" s="16"/>
-      <c r="D294" s="16"/>
-      <c r="E294" s="16"/>
-      <c r="F294" s="22"/>
-      <c r="G294" s="23"/>
-    </row>
-    <row r="295" ht="28.45" customHeight="1">
-      <c r="A295" s="21">
-        <v>294</v>
-      </c>
-      <c r="B295" s="16"/>
-      <c r="C295" s="16"/>
-      <c r="D295" s="16"/>
-      <c r="E295" s="16"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="23"/>
-    </row>
-    <row r="296" ht="28.45" customHeight="1">
-      <c r="A296" s="21">
-        <v>295</v>
-      </c>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
-      <c r="D296" s="16"/>
-      <c r="E296" s="16"/>
-      <c r="F296" s="22"/>
-      <c r="G296" s="23"/>
-    </row>
-    <row r="297" ht="28.45" customHeight="1">
-      <c r="A297" s="21">
-        <v>296</v>
-      </c>
-      <c r="B297" s="16"/>
-      <c r="C297" s="16"/>
-      <c r="D297" s="16"/>
-      <c r="E297" s="16"/>
-      <c r="F297" s="22"/>
-      <c r="G297" s="23"/>
-    </row>
-    <row r="298" ht="28.45" customHeight="1">
-      <c r="A298" s="21">
-        <v>297</v>
-      </c>
-      <c r="B298" s="16"/>
-      <c r="C298" s="16"/>
-      <c r="D298" s="16"/>
-      <c r="E298" s="16"/>
-      <c r="F298" s="22"/>
-      <c r="G298" s="23"/>
-    </row>
-    <row r="299" ht="28.45" customHeight="1">
-      <c r="A299" s="21">
-        <v>298</v>
-      </c>
-      <c r="B299" s="16"/>
-      <c r="C299" s="16"/>
-      <c r="D299" s="16"/>
-      <c r="E299" s="16"/>
-      <c r="F299" s="22"/>
-      <c r="G299" s="23"/>
-    </row>
-    <row r="300" ht="28.45" customHeight="1">
-      <c r="A300" s="21">
-        <v>299</v>
-      </c>
-      <c r="B300" s="16"/>
-      <c r="C300" s="16"/>
-      <c r="D300" s="16"/>
-      <c r="E300" s="16"/>
-      <c r="F300" s="22"/>
-      <c r="G300" s="23"/>
-    </row>
-    <row r="301" ht="28.45" customHeight="1">
-      <c r="A301" s="21">
-        <v>300</v>
-      </c>
-      <c r="B301" s="16"/>
-      <c r="C301" s="16"/>
-      <c r="D301" s="16"/>
-      <c r="E301" s="16"/>
-      <c r="F301" s="22"/>
-      <c r="G301" s="23"/>
-    </row>
-    <row r="302" ht="28.45" customHeight="1">
-      <c r="A302" s="21">
-        <v>301</v>
-      </c>
-      <c r="B302" s="16"/>
-      <c r="C302" s="16"/>
-      <c r="D302" s="16"/>
-      <c r="E302" s="16"/>
-      <c r="F302" s="22"/>
-      <c r="G302" s="23"/>
-    </row>
-    <row r="303" ht="28.45" customHeight="1">
-      <c r="A303" s="21">
-        <v>302</v>
-      </c>
-      <c r="B303" s="16"/>
-      <c r="C303" s="16"/>
-      <c r="D303" s="16"/>
-      <c r="E303" s="16"/>
-      <c r="F303" s="22"/>
-      <c r="G303" s="23"/>
-    </row>
-    <row r="304" ht="28.45" customHeight="1">
-      <c r="A304" s="21">
-        <v>303</v>
-      </c>
-      <c r="B304" s="16"/>
-      <c r="C304" s="16"/>
-      <c r="D304" s="16"/>
-      <c r="E304" s="16"/>
-      <c r="F304" s="22"/>
-      <c r="G304" s="23"/>
-    </row>
-    <row r="305" ht="28.45" customHeight="1">
-      <c r="A305" s="21">
-        <v>304</v>
-      </c>
-      <c r="B305" s="16"/>
-      <c r="C305" s="16"/>
-      <c r="D305" s="16"/>
-      <c r="E305" s="16"/>
-      <c r="F305" s="22"/>
-      <c r="G305" s="23"/>
-    </row>
-    <row r="306" ht="28.45" customHeight="1">
-      <c r="A306" s="21">
-        <v>305</v>
-      </c>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
-      <c r="D306" s="16"/>
-      <c r="E306" s="16"/>
-      <c r="F306" s="22"/>
-      <c r="G306" s="23"/>
-    </row>
-    <row r="307" ht="28.45" customHeight="1">
-      <c r="A307" s="21">
-        <v>306</v>
-      </c>
-      <c r="B307" s="16"/>
-      <c r="C307" s="16"/>
-      <c r="D307" s="16"/>
-      <c r="E307" s="16"/>
-      <c r="F307" s="22"/>
-      <c r="G307" s="23"/>
-    </row>
-    <row r="308" ht="28.45" customHeight="1">
-      <c r="A308" s="21">
-        <v>307</v>
-      </c>
-      <c r="B308" s="16"/>
-      <c r="C308" s="16"/>
-      <c r="D308" s="16"/>
-      <c r="E308" s="16"/>
-      <c r="F308" s="22"/>
-      <c r="G308" s="23"/>
-    </row>
-    <row r="309" ht="28.45" customHeight="1">
-      <c r="A309" s="21">
-        <v>308</v>
-      </c>
-      <c r="B309" s="16"/>
-      <c r="C309" s="16"/>
-      <c r="D309" s="16"/>
-      <c r="E309" s="16"/>
-      <c r="F309" s="22"/>
-      <c r="G309" s="23"/>
-    </row>
-    <row r="310" ht="28.45" customHeight="1">
-      <c r="A310" s="21">
-        <v>309</v>
-      </c>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
-      <c r="D310" s="16"/>
-      <c r="E310" s="16"/>
-      <c r="F310" s="22"/>
-      <c r="G310" s="23"/>
-    </row>
-    <row r="311" ht="28.45" customHeight="1">
-      <c r="A311" s="21">
-        <v>310</v>
-      </c>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-      <c r="D311" s="16"/>
-      <c r="E311" s="16"/>
-      <c r="F311" s="22"/>
-      <c r="G311" s="23"/>
-    </row>
-    <row r="312" ht="28.45" customHeight="1">
-      <c r="A312" s="21">
-        <v>311</v>
-      </c>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
-      <c r="D312" s="16"/>
-      <c r="E312" s="16"/>
-      <c r="F312" s="22"/>
-      <c r="G312" s="23"/>
-    </row>
-    <row r="313" ht="28.45" customHeight="1">
-      <c r="A313" s="21">
-        <v>312</v>
-      </c>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-      <c r="D313" s="16"/>
-      <c r="E313" s="16"/>
-      <c r="F313" s="22"/>
-      <c r="G313" s="23"/>
-    </row>
-    <row r="314" ht="28.45" customHeight="1">
-      <c r="A314" s="21">
-        <v>313</v>
-      </c>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="16"/>
-      <c r="F314" s="22"/>
-      <c r="G314" s="23"/>
-    </row>
-    <row r="315" ht="28.45" customHeight="1">
-      <c r="A315" s="21">
-        <v>314</v>
-      </c>
-      <c r="B315" s="16"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="16"/>
-      <c r="E315" s="16"/>
-      <c r="F315" s="22"/>
-      <c r="G315" s="23"/>
-    </row>
-    <row r="316" ht="28.45" customHeight="1">
-      <c r="A316" s="21">
-        <v>315</v>
-      </c>
-      <c r="B316" s="16"/>
-      <c r="C316" s="16"/>
-      <c r="D316" s="16"/>
-      <c r="E316" s="16"/>
-      <c r="F316" s="22"/>
-      <c r="G316" s="23"/>
-    </row>
-    <row r="317" ht="28.45" customHeight="1">
-      <c r="A317" s="21">
-        <v>316</v>
-      </c>
-      <c r="B317" s="16"/>
-      <c r="C317" s="16"/>
-      <c r="D317" s="16"/>
-      <c r="E317" s="16"/>
-      <c r="F317" s="22"/>
-      <c r="G317" s="23"/>
-    </row>
-    <row r="318" ht="28.45" customHeight="1">
-      <c r="A318" s="21">
-        <v>317</v>
-      </c>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="16"/>
-      <c r="F318" s="22"/>
-      <c r="G318" s="23"/>
-    </row>
-    <row r="319" ht="28.45" customHeight="1">
-      <c r="A319" s="21">
-        <v>318</v>
-      </c>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
-      <c r="D319" s="16"/>
-      <c r="E319" s="16"/>
-      <c r="F319" s="22"/>
-      <c r="G319" s="23"/>
-    </row>
-    <row r="320" ht="28.45" customHeight="1">
-      <c r="A320" s="21">
-        <v>319</v>
-      </c>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="16"/>
-      <c r="E320" s="16"/>
-      <c r="F320" s="22"/>
-      <c r="G320" s="23"/>
-    </row>
-    <row r="321" ht="28.45" customHeight="1">
-      <c r="A321" s="21">
-        <v>320</v>
-      </c>
-      <c r="B321" s="16"/>
-      <c r="C321" s="16"/>
-      <c r="D321" s="16"/>
-      <c r="E321" s="16"/>
-      <c r="F321" s="22"/>
-      <c r="G321" s="23"/>
-    </row>
-    <row r="322" ht="28.45" customHeight="1">
-      <c r="A322" s="21">
-        <v>321</v>
-      </c>
-      <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
-      <c r="D322" s="16"/>
-      <c r="E322" s="16"/>
-      <c r="F322" s="22"/>
-      <c r="G322" s="23"/>
-    </row>
-    <row r="323" ht="28.45" customHeight="1">
-      <c r="A323" s="21">
-        <v>322</v>
-      </c>
-      <c r="B323" s="16"/>
-      <c r="C323" s="16"/>
-      <c r="D323" s="16"/>
-      <c r="E323" s="16"/>
-      <c r="F323" s="22"/>
-      <c r="G323" s="23"/>
-    </row>
-    <row r="324" ht="28.45" customHeight="1">
-      <c r="A324" s="21">
-        <v>323</v>
-      </c>
-      <c r="B324" s="16"/>
-      <c r="C324" s="16"/>
-      <c r="D324" s="16"/>
-      <c r="E324" s="16"/>
-      <c r="F324" s="22"/>
-      <c r="G324" s="23"/>
-    </row>
-    <row r="325" ht="28.45" customHeight="1">
-      <c r="A325" s="21">
-        <v>324</v>
-      </c>
-      <c r="B325" s="16"/>
-      <c r="C325" s="16"/>
-      <c r="D325" s="16"/>
-      <c r="E325" s="16"/>
-      <c r="F325" s="22"/>
-      <c r="G325" s="23"/>
-    </row>
-    <row r="326" ht="28.45" customHeight="1">
-      <c r="A326" s="21">
-        <v>325</v>
-      </c>
-      <c r="B326" s="16"/>
-      <c r="C326" s="16"/>
-      <c r="D326" s="16"/>
-      <c r="E326" s="16"/>
-      <c r="F326" s="22"/>
-      <c r="G326" s="23"/>
-    </row>
-    <row r="327" ht="28.45" customHeight="1">
-      <c r="A327" s="21">
-        <v>326</v>
-      </c>
-      <c r="B327" s="16"/>
-      <c r="C327" s="16"/>
-      <c r="D327" s="16"/>
-      <c r="E327" s="16"/>
-      <c r="F327" s="22"/>
-      <c r="G327" s="23"/>
-    </row>
-    <row r="328" ht="28.45" customHeight="1">
-      <c r="A328" s="21">
-        <v>327</v>
-      </c>
-      <c r="B328" s="16"/>
-      <c r="C328" s="16"/>
-      <c r="D328" s="16"/>
-      <c r="E328" s="16"/>
-      <c r="F328" s="22"/>
-      <c r="G328" s="23"/>
-    </row>
-    <row r="329" ht="28.45" customHeight="1">
-      <c r="A329" s="21">
-        <v>328</v>
-      </c>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
-      <c r="D329" s="16"/>
-      <c r="E329" s="16"/>
-      <c r="F329" s="22"/>
-      <c r="G329" s="23"/>
-    </row>
-    <row r="330" ht="28.45" customHeight="1">
-      <c r="A330" s="21">
-        <v>329</v>
-      </c>
-      <c r="B330" s="16"/>
-      <c r="C330" s="16"/>
-      <c r="D330" s="16"/>
-      <c r="E330" s="16"/>
-      <c r="F330" s="22"/>
-      <c r="G330" s="23"/>
-    </row>
-    <row r="331" ht="28.45" customHeight="1">
-      <c r="A331" s="21">
-        <v>330</v>
-      </c>
-      <c r="B331" s="16"/>
-      <c r="C331" s="16"/>
-      <c r="D331" s="16"/>
-      <c r="E331" s="16"/>
-      <c r="F331" s="22"/>
-      <c r="G331" s="23"/>
-    </row>
-    <row r="332" ht="28.45" customHeight="1">
-      <c r="A332" s="21">
-        <v>331</v>
-      </c>
-      <c r="B332" s="16"/>
-      <c r="C332" s="16"/>
-      <c r="D332" s="16"/>
-      <c r="E332" s="16"/>
-      <c r="F332" s="22"/>
-      <c r="G332" s="23"/>
-    </row>
-    <row r="333" ht="28.45" customHeight="1">
-      <c r="A333" s="21">
-        <v>332</v>
-      </c>
-      <c r="B333" s="16"/>
-      <c r="C333" s="16"/>
-      <c r="D333" s="16"/>
-      <c r="E333" s="16"/>
-      <c r="F333" s="22"/>
-      <c r="G333" s="23"/>
-    </row>
-    <row r="334" ht="28.45" customHeight="1">
-      <c r="A334" s="21">
-        <v>333</v>
-      </c>
-      <c r="B334" s="16"/>
-      <c r="C334" s="16"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="16"/>
-      <c r="F334" s="22"/>
-      <c r="G334" s="23"/>
-    </row>
-    <row r="335" ht="28.45" customHeight="1">
-      <c r="A335" s="21">
-        <v>334</v>
-      </c>
-      <c r="B335" s="16"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="22"/>
-      <c r="G335" s="23"/>
-    </row>
-    <row r="336" ht="28.45" customHeight="1">
-      <c r="A336" s="21">
-        <v>335</v>
-      </c>
-      <c r="B336" s="16"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="16"/>
-      <c r="E336" s="16"/>
-      <c r="F336" s="22"/>
-      <c r="G336" s="23"/>
-    </row>
-    <row r="337" ht="28.45" customHeight="1">
-      <c r="A337" s="21">
-        <v>336</v>
-      </c>
-      <c r="B337" s="16"/>
-      <c r="C337" s="16"/>
-      <c r="D337" s="16"/>
-      <c r="E337" s="16"/>
-      <c r="F337" s="22"/>
-      <c r="G337" s="23"/>
-    </row>
-    <row r="338" ht="28.45" customHeight="1">
-      <c r="A338" s="21">
-        <v>337</v>
-      </c>
-      <c r="B338" s="16"/>
-      <c r="C338" s="16"/>
-      <c r="D338" s="16"/>
-      <c r="E338" s="16"/>
-      <c r="F338" s="22"/>
-      <c r="G338" s="23"/>
-    </row>
-    <row r="339" ht="28.45" customHeight="1">
-      <c r="A339" s="21">
-        <v>338</v>
-      </c>
-      <c r="B339" s="16"/>
-      <c r="C339" s="16"/>
-      <c r="D339" s="16"/>
-      <c r="E339" s="16"/>
-      <c r="F339" s="22"/>
-      <c r="G339" s="23"/>
-    </row>
-    <row r="340" ht="28.45" customHeight="1">
-      <c r="A340" s="21">
-        <v>339</v>
-      </c>
-      <c r="B340" s="16"/>
-      <c r="C340" s="16"/>
-      <c r="D340" s="16"/>
-      <c r="E340" s="16"/>
-      <c r="F340" s="22"/>
-      <c r="G340" s="23"/>
-    </row>
-    <row r="341" ht="28.45" customHeight="1">
-      <c r="A341" s="21">
-        <v>340</v>
-      </c>
-      <c r="B341" s="16"/>
-      <c r="C341" s="16"/>
-      <c r="D341" s="16"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="22"/>
-      <c r="G341" s="23"/>
-    </row>
-    <row r="342" ht="28.45" customHeight="1">
-      <c r="A342" s="21">
-        <v>341</v>
-      </c>
-      <c r="B342" s="16"/>
-      <c r="C342" s="16"/>
-      <c r="D342" s="16"/>
-      <c r="E342" s="16"/>
-      <c r="F342" s="22"/>
-      <c r="G342" s="23"/>
-    </row>
-    <row r="343" ht="28.45" customHeight="1">
-      <c r="A343" s="21">
-        <v>342</v>
-      </c>
-      <c r="B343" s="16"/>
-      <c r="C343" s="16"/>
-      <c r="D343" s="16"/>
-      <c r="E343" s="16"/>
-      <c r="F343" s="22"/>
-      <c r="G343" s="23"/>
-    </row>
-    <row r="344" ht="28.45" customHeight="1">
-      <c r="A344" s="21">
-        <v>343</v>
-      </c>
-      <c r="B344" s="16"/>
-      <c r="C344" s="16"/>
-      <c r="D344" s="16"/>
-      <c r="E344" s="16"/>
-      <c r="F344" s="22"/>
-      <c r="G344" s="23"/>
-    </row>
-    <row r="345" ht="28.45" customHeight="1">
-      <c r="A345" s="21">
-        <v>344</v>
-      </c>
-      <c r="B345" s="16"/>
-      <c r="C345" s="16"/>
-      <c r="D345" s="16"/>
-      <c r="E345" s="16"/>
-      <c r="F345" s="22"/>
-      <c r="G345" s="23"/>
-    </row>
-    <row r="346" ht="28.45" customHeight="1">
-      <c r="A346" s="21">
-        <v>345</v>
-      </c>
-      <c r="B346" s="16"/>
-      <c r="C346" s="16"/>
-      <c r="D346" s="16"/>
-      <c r="E346" s="16"/>
-      <c r="F346" s="22"/>
-      <c r="G346" s="23"/>
-    </row>
-    <row r="347" ht="28.45" customHeight="1">
-      <c r="A347" s="21">
-        <v>346</v>
-      </c>
-      <c r="B347" s="16"/>
-      <c r="C347" s="16"/>
-      <c r="D347" s="16"/>
-      <c r="E347" s="16"/>
-      <c r="F347" s="22"/>
-      <c r="G347" s="23"/>
-    </row>
-    <row r="348" ht="28.45" customHeight="1">
-      <c r="A348" s="21">
-        <v>347</v>
-      </c>
-      <c r="B348" s="16"/>
-      <c r="C348" s="16"/>
-      <c r="D348" s="16"/>
-      <c r="E348" s="16"/>
-      <c r="F348" s="22"/>
-      <c r="G348" s="23"/>
-    </row>
-    <row r="349" ht="28.45" customHeight="1">
-      <c r="A349" s="21">
-        <v>348</v>
-      </c>
-      <c r="B349" s="16"/>
-      <c r="C349" s="16"/>
-      <c r="D349" s="16"/>
-      <c r="E349" s="16"/>
-      <c r="F349" s="22"/>
-      <c r="G349" s="23"/>
-    </row>
-    <row r="350" ht="28.45" customHeight="1">
-      <c r="A350" s="21">
-        <v>349</v>
-      </c>
-      <c r="B350" s="16"/>
-      <c r="C350" s="16"/>
-      <c r="D350" s="16"/>
-      <c r="E350" s="16"/>
-      <c r="F350" s="22"/>
-      <c r="G350" s="23"/>
-    </row>
-    <row r="351" ht="28.45" customHeight="1">
-      <c r="A351" s="21">
-        <v>350</v>
-      </c>
-      <c r="B351" s="16"/>
-      <c r="C351" s="16"/>
-      <c r="D351" s="16"/>
-      <c r="E351" s="16"/>
-      <c r="F351" s="22"/>
-      <c r="G351" s="23"/>
-    </row>
-    <row r="352" ht="28.45" customHeight="1">
-      <c r="A352" s="21">
-        <v>351</v>
-      </c>
-      <c r="B352" s="16"/>
-      <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="22"/>
-      <c r="G352" s="23"/>
-    </row>
-    <row r="353" ht="28.45" customHeight="1">
-      <c r="A353" s="21">
-        <v>352</v>
-      </c>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="16"/>
-      <c r="F353" s="22"/>
-      <c r="G353" s="23"/>
-    </row>
-    <row r="354" ht="28.45" customHeight="1">
-      <c r="A354" s="21">
-        <v>353</v>
-      </c>
-      <c r="B354" s="16"/>
-      <c r="C354" s="16"/>
-      <c r="D354" s="16"/>
-      <c r="E354" s="16"/>
-      <c r="F354" s="22"/>
-      <c r="G354" s="23"/>
-    </row>
-    <row r="355" ht="28.45" customHeight="1">
-      <c r="A355" s="21">
-        <v>354</v>
-      </c>
-      <c r="B355" s="16"/>
-      <c r="C355" s="16"/>
-      <c r="D355" s="16"/>
-      <c r="E355" s="16"/>
-      <c r="F355" s="22"/>
-      <c r="G355" s="23"/>
-    </row>
-    <row r="356" ht="28.45" customHeight="1">
-      <c r="A356" s="21">
-        <v>355</v>
-      </c>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
-      <c r="D356" s="16"/>
-      <c r="E356" s="16"/>
-      <c r="F356" s="22"/>
-      <c r="G356" s="23"/>
-    </row>
-    <row r="357" ht="28.45" customHeight="1">
-      <c r="A357" s="21">
-        <v>356</v>
-      </c>
-      <c r="B357" s="16"/>
-      <c r="C357" s="16"/>
-      <c r="D357" s="16"/>
-      <c r="E357" s="16"/>
-      <c r="F357" s="22"/>
-      <c r="G357" s="23"/>
-    </row>
-    <row r="358" ht="28.45" customHeight="1">
-      <c r="A358" s="21">
-        <v>357</v>
-      </c>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
-      <c r="E358" s="16"/>
-      <c r="F358" s="22"/>
-      <c r="G358" s="23"/>
-    </row>
-    <row r="359" ht="28.45" customHeight="1">
-      <c r="A359" s="21">
-        <v>358</v>
-      </c>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="16"/>
-      <c r="F359" s="22"/>
-      <c r="G359" s="23"/>
-    </row>
-    <row r="360" ht="28.45" customHeight="1">
-      <c r="A360" s="21">
-        <v>359</v>
-      </c>
-      <c r="B360" s="16"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="16"/>
-      <c r="E360" s="16"/>
-      <c r="F360" s="22"/>
-      <c r="G360" s="23"/>
-    </row>
-    <row r="361" ht="28.45" customHeight="1">
-      <c r="A361" s="21">
-        <v>360</v>
-      </c>
-      <c r="B361" s="16"/>
-      <c r="C361" s="16"/>
-      <c r="D361" s="16"/>
-      <c r="E361" s="16"/>
-      <c r="F361" s="22"/>
-      <c r="G361" s="23"/>
-    </row>
-    <row r="362" ht="28.45" customHeight="1">
-      <c r="A362" s="21">
-        <v>361</v>
-      </c>
-      <c r="B362" s="16"/>
-      <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
-      <c r="E362" s="16"/>
-      <c r="F362" s="22"/>
-      <c r="G362" s="23"/>
-    </row>
-    <row r="363" ht="28.45" customHeight="1">
-      <c r="A363" s="21">
-        <v>362</v>
-      </c>
-      <c r="B363" s="16"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="16"/>
-      <c r="F363" s="22"/>
-      <c r="G363" s="23"/>
-    </row>
-    <row r="364" ht="28.45" customHeight="1">
-      <c r="A364" s="21">
-        <v>363</v>
-      </c>
-      <c r="B364" s="16"/>
-      <c r="C364" s="16"/>
-      <c r="D364" s="16"/>
-      <c r="E364" s="16"/>
-      <c r="F364" s="22"/>
-      <c r="G364" s="23"/>
-    </row>
-    <row r="365" ht="28.45" customHeight="1">
-      <c r="A365" s="21">
-        <v>364</v>
-      </c>
-      <c r="B365" s="16"/>
-      <c r="C365" s="16"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="16"/>
-      <c r="F365" s="22"/>
-      <c r="G365" s="23"/>
-    </row>
-    <row r="366" ht="28.45" customHeight="1">
-      <c r="A366" s="21">
-        <v>365</v>
-      </c>
-      <c r="B366" s="16"/>
-      <c r="C366" s="16"/>
-      <c r="D366" s="16"/>
-      <c r="E366" s="16"/>
-      <c r="F366" s="22"/>
-      <c r="G366" s="23"/>
-    </row>
-    <row r="367" ht="28.45" customHeight="1">
-      <c r="A367" s="21">
-        <v>366</v>
-      </c>
-      <c r="B367" s="16"/>
-      <c r="C367" s="16"/>
-      <c r="D367" s="16"/>
-      <c r="E367" s="16"/>
-      <c r="F367" s="22"/>
-      <c r="G367" s="23"/>
-    </row>
-    <row r="368" ht="28.45" customHeight="1">
-      <c r="A368" s="21">
-        <v>367</v>
-      </c>
-      <c r="B368" s="16"/>
-      <c r="C368" s="16"/>
-      <c r="D368" s="16"/>
-      <c r="E368" s="16"/>
-      <c r="F368" s="22"/>
-      <c r="G368" s="23"/>
-    </row>
-    <row r="369" ht="28.45" customHeight="1">
-      <c r="A369" s="21">
-        <v>368</v>
-      </c>
-      <c r="B369" s="16"/>
-      <c r="C369" s="16"/>
-      <c r="D369" s="16"/>
-      <c r="E369" s="16"/>
-      <c r="F369" s="22"/>
-      <c r="G369" s="23"/>
-    </row>
-    <row r="370" ht="28.45" customHeight="1">
-      <c r="A370" s="21">
-        <v>369</v>
-      </c>
-      <c r="B370" s="16"/>
-      <c r="C370" s="16"/>
-      <c r="D370" s="16"/>
-      <c r="E370" s="16"/>
-      <c r="F370" s="22"/>
-      <c r="G370" s="23"/>
-    </row>
-    <row r="371" ht="28.45" customHeight="1">
-      <c r="A371" s="21">
-        <v>370</v>
-      </c>
-      <c r="B371" s="16"/>
-      <c r="C371" s="16"/>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16"/>
-      <c r="F371" s="22"/>
-      <c r="G371" s="23"/>
-    </row>
-    <row r="372" ht="28.45" customHeight="1">
-      <c r="A372" s="21">
-        <v>371</v>
-      </c>
-      <c r="B372" s="16"/>
-      <c r="C372" s="16"/>
-      <c r="D372" s="16"/>
-      <c r="E372" s="16"/>
-      <c r="F372" s="22"/>
-      <c r="G372" s="23"/>
-    </row>
-    <row r="373" ht="28.45" customHeight="1">
-      <c r="A373" s="21">
-        <v>372</v>
-      </c>
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
-      <c r="D373" s="19"/>
-      <c r="E373" s="19"/>
-      <c r="F373" s="22"/>
-      <c r="G373" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
